--- a/final_data_pipeline/output/325212longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325212longform_elec_options.xlsx
@@ -570,7 +570,7 @@
         <v>33</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -585,10 +585,10 @@
         <v>3133069.840437805</v>
       </c>
       <c r="R2">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="S2">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="T2">
         <v>391.6337300547257</v>
@@ -776,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -791,10 +791,10 @@
         <v>766737.5198862833</v>
       </c>
       <c r="R6">
-        <v>1.800714285714286</v>
+        <v>1.983015294974508</v>
       </c>
       <c r="S6">
-        <v>1.963947368421052</v>
+        <v>2.18606997558991</v>
       </c>
       <c r="T6">
         <v>95.84218998578541</v>
@@ -829,7 +829,7 @@
         <v>33</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -844,10 +844,10 @@
         <v>1771159.693720966</v>
       </c>
       <c r="R7">
-        <v>1.800714285714286</v>
+        <v>1.867546171126113</v>
       </c>
       <c r="S7">
-        <v>1.963947368421052</v>
+        <v>2.044826120875009</v>
       </c>
       <c r="T7">
         <v>221.3949617151208</v>
@@ -988,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1003,10 +1003,10 @@
         <v>2795851.227066055</v>
       </c>
       <c r="R10">
-        <v>1.800714285714286</v>
+        <v>1.983015294974508</v>
       </c>
       <c r="S10">
-        <v>1.963947368421052</v>
+        <v>2.18606997558991</v>
       </c>
       <c r="T10">
         <v>349.4814033832569</v>
